--- a/medicine/Enfance/Anne_Sexton/Anne_Sexton.xlsx
+++ b/medicine/Enfance/Anne_Sexton/Anne_Sexton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Sexton, de son vrai nom Anne Gray Harvey, née le 9 novembre 1928 et morte le 4 octobre 1974, est une écrivaine et poétesse américaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Sexton est née en 1928 à Newton, dans le Massachusetts, et a passé la majeure partie de son existence dans les environs de Boston. En 1945, elle intègre un pensionnat, la Rogers Hall School, à Lowell dans le Massachusetts. Elle se marie en 1948 avec Alfred Muller Sexton, connu sous le pseudonyme de « Kayo ». Ils auront ensemble, avant leur divorce au début des années 1970, deux enfants : Linda Gray Sexton, qui sera plus tard romancière, et Joyce Sexton.
 Une grande partie de la vie de Anne Sexton sera tourmentée par la dépression. Sa première dépression nerveuse survient en 1954. Après un deuxième épisode dépressif en 1955, elle rencontre le docteur Martin Orne à l'hôpital de Glenside, qui l'encourage à écrire de la poésie, ce qu'elle fait en s'inscrivant à son premier atelier de poésie, animé par le poète John Holmes (poète) (en). À la suite de ce travail en atelier d'écriture, les poèmes de Anne Sexton rencontrent un certain succès, puisqu'elle obtient des publications dans des revues prestigieuses aux États-Unis, tel le New Yorker, Harper's Magazine, et Saturday Review. Sa créativité poétique est encouragée par son mentor, W. D. Snodgrass (en), dont le poème Heart's Needle a inspiré Anne Sexton pour l'écriture du texte The Double Image, un poème particulièrement marquant sur les rapports entre mère et fille.
@@ -546,7 +560,9 @@
           <t>Contenu et thèmes de son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Sexton incarne la figure moderne du poète confessionnaliste. Elle a non seulement ouvert la voie pour les poétesses, mais elle a aussi, par son écriture, contribué à lever le voile sur les problèmes spécifiquement féminins. Ses écrits évoquent notamment l'avortement, les menstruations, la masturbation féminine et l'adultère, bien avant que ces sujets soient tolérés, acceptés ou banalisés. En cela, elle a bousculé et repoussé les frontières de la poésie.
 </t>
@@ -577,9 +593,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musicien britannique Peter Gabriel a écrit en 1986 une chanson dédiée à Anne Sexton, intitulée Mercy Street[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musicien britannique Peter Gabriel a écrit en 1986 une chanson dédiée à Anne Sexton, intitulée Mercy Street.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>To Bedlam and Part Way Back (1960)
 All My Pretty Ones (1962)
@@ -650,7 +670,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Sexton est récompensée en 1967 du prix Pulitzer de la poésie pour son recueil Live or Die, paru en 1966.
 </t>
